--- a/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
+++ b/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipF\InputData\endo-learn\SYSoCCtaSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\SYSoCCtaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>Sources:</t>
   </si>
@@ -253,13 +253,22 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Soft cost share</t>
-  </si>
-  <si>
     <t>Data in this variable are only used for onshore wind, offshore wind, and solar PV.</t>
   </si>
   <si>
     <t>SYSoCCtaSC Start Year Shares of Capacity Costs that are Soft Costs</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Soft cost share (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -354,11 +363,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,17 +653,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,137 +671,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -814,21 +823,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1328125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -839,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -850,7 +859,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -861,7 +870,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -872,7 +881,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -883,7 +892,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -894,7 +903,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -905,7 +914,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -916,7 +925,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -927,7 +936,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -938,7 +947,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -949,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -960,7 +969,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -971,30 +980,30 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <f>SUM(C12:C15,C7:C10)</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +1035,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1058,10 +1067,10 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1077,16 +1086,16 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <f>B35*SUM(B29:B32,B27)</f>
         <v>0.29399999999999998</v>
@@ -1095,15 +1104,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1136,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1183,13 +1192,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
         <f>B52*SUM(B46:B49,B44)</f>
         <v>0.20299999999999999</v>
@@ -1198,25 +1207,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="10">
         <f>AVERAGE(A38,A55)</f>
         <v>0.2485</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -1224,7 +1233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1248,27 +1257,27 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="8">
         <f>B66</f>
         <v>0.41</v>
@@ -1284,125 +1293,155 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="B1" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <f>Data!A19</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <f>Data!A73</f>
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <f>Data!A58</f>
         <v>0.2485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
+++ b/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\SYSoCCtaSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\endo-learn\SYSoCCtaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2AA02-27FC-41E2-A128-5F9185E7D892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="11880"/>
+    <workbookView xWindow="3735" yWindow="405" windowWidth="24435" windowHeight="16275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="SYSoCCtaSC" sheetId="2" r:id="rId3"/>
+    <sheet name="SYSoCCtaSC-electricity" sheetId="2" r:id="rId3"/>
+    <sheet name="SYSoCCtaSC-buildings" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Sources:</t>
   </si>
@@ -269,12 +279,18 @@
   </si>
   <si>
     <t>Soft cost share (dimensionless)</t>
+  </si>
+  <si>
+    <t>distributed solar</t>
+  </si>
+  <si>
+    <t>SYSoCCtaSC Share of Distributed Solar and Retrofitting Costs that is Labor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -648,169 +664,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.3984375" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B20" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -818,26 +839,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19.1328125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -848,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -859,7 +880,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -870,7 +891,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -881,7 +902,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -892,7 +913,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -903,7 +924,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -914,7 +935,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -925,7 +946,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -936,7 +957,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -947,7 +968,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -958,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -969,7 +990,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -980,30 +1001,30 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <f>SUM(C12:C15,C7:C10)</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1040,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1048,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +1064,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1072,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1080,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1067,10 +1088,10 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1086,16 +1107,16 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <f>B35*SUM(B29:B32,B27)</f>
         <v>0.29399999999999998</v>
@@ -1104,15 +1125,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1149,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1157,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1144,7 +1165,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1173,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1181,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1189,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1205,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1192,13 +1213,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <f>B52*SUM(B46:B49,B44)</f>
         <v>0.20299999999999999</v>
@@ -1207,25 +1228,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <f>AVERAGE(A38,A55)</f>
         <v>0.2485</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -1249,7 +1270,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1257,27 +1278,27 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <f>B66</f>
         <v>0.41</v>
@@ -1289,28 +1310,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1334,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1351,7 +1370,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1360,7 +1379,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1368,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1376,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1384,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1400,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1408,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1417,7 +1436,7 @@
         <v>0.2485</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1426,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -1435,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1443,6 +1462,76 @@
         <f>B9</f>
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4726773-744F-402D-A81A-2320CC12EE84}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3">
+        <f>AVERAGE(Data!B64:B65)</f>
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
